--- a/excels/rl_10_r_1_base.xlsx
+++ b/excels/rl_10_r_1_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="15390" windowHeight="12525" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="15390" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="3" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="204">
   <si>
     <t>maze</t>
   </si>
@@ -677,6 +677,33 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
 </sst>
 </file>
@@ -832,7 +859,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -937,7 +964,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1243,17 +1270,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="12" width="13.875" customWidth="1"/>
     <col min="13" max="13" width="3.75" customWidth="1"/>
     <col min="14" max="18" width="13.875" customWidth="1"/>
@@ -5913,54 +5940,815 @@
         <v>1.2665357942934374</v>
       </c>
     </row>
+    <row r="87" spans="1:20">
+      <c r="B87">
+        <f t="shared" ref="B87:M87" ca="1" si="3">AVERAGE(OFFSET(B$2, (ROW()-ROW(A$87))*9,,9,))</f>
+        <v>3.7265559302435927</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0906127293904424</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.0481105645497557</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3995572725931638</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.6511313120523896</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.1444018681844019</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.8711778322855466</v>
+      </c>
+      <c r="J87">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.682555357615119</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.981177197562287</v>
+      </c>
+      <c r="L87">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9684063063727439</v>
+      </c>
+      <c r="N87">
+        <f ca="1">AVERAGE(OFFSET(N$2, (ROW()-ROW(M$87))*9,,9,))</f>
+        <v>1.8187349902258927</v>
+      </c>
+      <c r="O87">
+        <f t="shared" ref="O87:R87" ca="1" si="4">AVERAGE(OFFSET(O$2, (ROW()-ROW(N$87))*9,,9,))</f>
+        <v>2.9438346491919578</v>
+      </c>
+      <c r="P87">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4028886689080062</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.1944448153177856</v>
+      </c>
+      <c r="R87">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8458888795640696</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="B88">
+        <f t="shared" ref="B88:M88" ca="1" si="5">AVERAGE(OFFSET(B$2, (ROW()-ROW(A$87))*9,,9,))</f>
+        <v>2.071770853466453</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.9062206215328583</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.8553327719370474</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.3380072911580267</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.6400369273291568</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.7865531974368531</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.3931865692138592</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.0228877067565847</v>
+      </c>
+      <c r="K88">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.9065555996364907</v>
+      </c>
+      <c r="L88">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.9648403591579768</v>
+      </c>
+      <c r="N88">
+        <f t="shared" ref="N88:R95" ca="1" si="6">AVERAGE(OFFSET(N$2, (ROW()-ROW(M$87))*9,,9,))</f>
+        <v>0.96177744865417281</v>
+      </c>
+      <c r="O88">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.7546666728125637</v>
+      </c>
+      <c r="P88">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.3005550967322423</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.6874443425072503</v>
+      </c>
+      <c r="R88">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.7611212200588613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="B89">
+        <f t="shared" ref="B89:M89" ca="1" si="7">AVERAGE(OFFSET(B$2, (ROW()-ROW(A$87))*9,,9,))</f>
+        <v>1.423111968570282</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5225315358903577</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.3683329953087635</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="7"/>
+        <v>5.8660102420382971</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.3257445494333862</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="7"/>
+        <v>2.401999341117004</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.5962218443552532</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.370777951346497</v>
+      </c>
+      <c r="K89">
+        <f t="shared" ca="1" si="7"/>
+        <v>7.8640001879798014</v>
+      </c>
+      <c r="L89">
+        <f t="shared" ca="1" si="7"/>
+        <v>4.5125551223754794</v>
+      </c>
+      <c r="N89">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.63700008392333929</v>
+      </c>
+      <c r="O89">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.1818887657589352</v>
+      </c>
+      <c r="P89">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.0169997745090016</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.2559997505611808</v>
+      </c>
+      <c r="R89">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.2506074640485958</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="B90">
+        <f t="shared" ref="B90:M90" ca="1" si="8">AVERAGE(OFFSET(B$2, (ROW()-ROW(A$87))*9,,9,))</f>
+        <v>1.1060682932535788</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.9633329179551811</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.9403329425387859</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.7076669004228346</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.1118889384799489</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.0943346288469051</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.6087772051493183</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.7716663678487095</v>
+      </c>
+      <c r="K90">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.9084446430206263</v>
+      </c>
+      <c r="L90">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.2569461663563928</v>
+      </c>
+      <c r="N90">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.48044501410590218</v>
+      </c>
+      <c r="O90">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.90733385086059393</v>
+      </c>
+      <c r="P90">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.1975555419921862</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.8946667247348339</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.1129995981852181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="B91">
+        <f t="shared" ref="B91:M91" ca="1" si="9">AVERAGE(OFFSET(B$2, (ROW()-ROW(A$87))*9,,9,))</f>
+        <v>0.78688756624857481</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.9682221412658647</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.7156656848059715</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.322917222976681</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.9259999328189379</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.1284458902147074</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.215332931942406</v>
+      </c>
+      <c r="J91">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.2181104554070323</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.1846676137712144</v>
+      </c>
+      <c r="L91">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.4855551719665363</v>
+      </c>
+      <c r="N91">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.41377621226840489</v>
+      </c>
+      <c r="O91">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.81322190496656499</v>
+      </c>
+      <c r="P91">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.8388884332444918</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.4966704050699819</v>
+      </c>
+      <c r="R91">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.88744364844427948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="B92">
+        <f t="shared" ref="B92:M92" ca="1" si="10">AVERAGE(OFFSET(B$2, (ROW()-ROW(A$87))*9,,9,))</f>
+        <v>0.70977727572123117</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3294443024529321</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.7532221741146463</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.9071169429355157</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.9108884069654617</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.4339994854397242</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.2631109820471735</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.8499994277954066</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.8113348219129737</v>
+      </c>
+      <c r="L92">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.621438635720132</v>
+      </c>
+      <c r="N92">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.33077743318345754</v>
+      </c>
+      <c r="O92">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.72300961282518084</v>
+      </c>
+      <c r="P92">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.4302219019995763</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.712999608781598</v>
+      </c>
+      <c r="R92">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.71466647254096027</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="B93">
+        <f t="shared" ref="B93:M93" ca="1" si="11">AVERAGE(OFFSET(B$2, (ROW()-ROW(A$87))*9,,9,))</f>
+        <v>0.62144316567314861</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.5785551600986036</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.5451104376051124</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.5516723261939118</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="11"/>
+        <v>1.2559998300340414</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.86955375141567537</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.9546662701500686</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ca="1" si="11"/>
+        <v>3.7167776690589012</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ca="1" si="11"/>
+        <v>8.3567362096574413</v>
+      </c>
+      <c r="L93">
+        <f t="shared" ca="1" si="11"/>
+        <v>3.2623546123504572</v>
+      </c>
+      <c r="N93">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.28522192107306538</v>
+      </c>
+      <c r="O93">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.62833317120869925</v>
+      </c>
+      <c r="P93">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.3723333146837016</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.5690000587039483</v>
+      </c>
+      <c r="R93">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.68198415968153159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="B94">
+        <f t="shared" ref="B94:M94" ca="1" si="12">AVERAGE(OFFSET(B$2, (ROW()-ROW(A$87))*9,,9,))</f>
+        <v>0.51844461758931415</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.4684443473815902</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="12"/>
+        <v>3.1817773977915405</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="12"/>
+        <v>6.0773337946997694</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.1007237699296715</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.3034442795647516</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="12"/>
+        <v>2.6413332621256433</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ca="1" si="12"/>
+        <v>5.0102219581603871</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ca="1" si="12"/>
+        <v>6.4853259722391634</v>
+      </c>
+      <c r="L94">
+        <f t="shared" ca="1" si="12"/>
+        <v>2.9425552686055414</v>
+      </c>
+      <c r="N94">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.25155509842766616</v>
+      </c>
+      <c r="O94">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.6623345745934377</v>
+      </c>
+      <c r="P94">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.99711084365844549</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.4420000447167256</v>
+      </c>
+      <c r="R94">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.57766646809048094</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="B95">
+        <f t="shared" ref="B95:M95" ca="1" si="13">AVERAGE(OFFSET(B$2, (ROW()-ROW(A$87))*9,,9,))</f>
+        <v>0.44544347127278605</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.0729993449317081</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.3481106758117649</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="13"/>
+        <v>5.450667116377085</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5805555184682198</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2305551899804001</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5857773356967477</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ca="1" si="13"/>
+        <v>4.2974436283111475</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ca="1" si="13"/>
+        <v>8.9671998553805796</v>
+      </c>
+      <c r="L95">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.7326664394802433</v>
+      </c>
+      <c r="N95">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.24144419034322068</v>
+      </c>
+      <c r="O95">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.48800020747714534</v>
+      </c>
+      <c r="P95">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.3489999241299075</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.9103324413299521</v>
+      </c>
+      <c r="R95">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.56644423802693633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="D97" t="s">
+        <v>195</v>
+      </c>
+      <c r="E97" t="s">
+        <v>196</v>
+      </c>
+      <c r="F97" t="s">
+        <v>197</v>
+      </c>
+      <c r="G97" t="s">
+        <v>198</v>
+      </c>
+      <c r="H97" t="s">
+        <v>199</v>
+      </c>
+      <c r="I97" t="s">
+        <v>200</v>
+      </c>
+      <c r="J97" t="s">
+        <v>201</v>
+      </c>
+      <c r="K97" t="s">
+        <v>202</v>
+      </c>
+      <c r="L97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="D98">
+        <v>1.8187349902258927</v>
+      </c>
+      <c r="E98">
+        <v>0.96177744865417281</v>
+      </c>
+      <c r="F98">
+        <v>0.63700008392333929</v>
+      </c>
+      <c r="G98">
+        <v>0.48044501410590218</v>
+      </c>
+      <c r="H98">
+        <v>0.41377621226840489</v>
+      </c>
+      <c r="I98">
+        <v>0.33077743318345754</v>
+      </c>
+      <c r="J98">
+        <v>0.28522192107306538</v>
+      </c>
+      <c r="K98">
+        <v>0.25155509842766616</v>
+      </c>
+      <c r="L98">
+        <v>0.24144419034322068</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="D99">
+        <v>2.9438346491919578</v>
+      </c>
+      <c r="E99">
+        <v>1.7546666728125637</v>
+      </c>
+      <c r="F99">
+        <v>1.1818887657589352</v>
+      </c>
+      <c r="G99">
+        <v>0.90733385086059393</v>
+      </c>
+      <c r="H99">
+        <v>0.81322190496656499</v>
+      </c>
+      <c r="I99">
+        <v>0.72300961282518084</v>
+      </c>
+      <c r="J99">
+        <v>0.62833317120869925</v>
+      </c>
+      <c r="K99">
+        <v>0.6623345745934377</v>
+      </c>
+      <c r="L99">
+        <v>0.48800020747714534</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="D100">
+        <v>3.4028886689080062</v>
+      </c>
+      <c r="E100">
+        <v>2.3005550967322423</v>
+      </c>
+      <c r="F100">
+        <v>2.0169997745090016</v>
+      </c>
+      <c r="G100">
+        <v>1.1975555419921862</v>
+      </c>
+      <c r="H100">
+        <v>0.8388884332444918</v>
+      </c>
+      <c r="I100">
+        <v>1.4302219019995763</v>
+      </c>
+      <c r="J100">
+        <v>1.3723333146837016</v>
+      </c>
+      <c r="K100">
+        <v>0.99711084365844549</v>
+      </c>
+      <c r="L100">
+        <v>1.3489999241299075</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="D101">
+        <v>5.1944448153177856</v>
+      </c>
+      <c r="E101">
+        <v>4.6874443425072503</v>
+      </c>
+      <c r="F101">
+        <v>2.2559997505611808</v>
+      </c>
+      <c r="G101">
+        <v>3.8946667247348339</v>
+      </c>
+      <c r="H101">
+        <v>3.4966704050699819</v>
+      </c>
+      <c r="I101">
+        <v>3.712999608781598</v>
+      </c>
+      <c r="J101">
+        <v>3.5690000587039483</v>
+      </c>
+      <c r="K101">
+        <v>2.4420000447167256</v>
+      </c>
+      <c r="L101">
+        <v>3.9103324413299521</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="D102">
+        <v>3.8458888795640696</v>
+      </c>
+      <c r="E102">
+        <v>1.7611212200588613</v>
+      </c>
+      <c r="F102">
+        <v>1.2506074640485958</v>
+      </c>
+      <c r="G102">
+        <v>1.1129995981852181</v>
+      </c>
+      <c r="H102">
+        <v>0.88744364844427948</v>
+      </c>
+      <c r="I102">
+        <v>0.71466647254096027</v>
+      </c>
+      <c r="J102">
+        <v>0.68198415968153159</v>
+      </c>
+      <c r="K102">
+        <v>0.57766646809048094</v>
+      </c>
+      <c r="L102">
+        <v>0.56644423802693633</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>3.7265559302435927</v>
+      </c>
+      <c r="B108">
+        <v>2.071770853466453</v>
+      </c>
+      <c r="C108">
+        <v>1.423111968570282</v>
+      </c>
+      <c r="D108">
+        <v>1.1060682932535788</v>
+      </c>
+      <c r="E108">
+        <v>0.78688756624857481</v>
+      </c>
+      <c r="F108">
+        <v>0.70977727572123117</v>
+      </c>
+      <c r="G108">
+        <v>0.62144316567314861</v>
+      </c>
+      <c r="H108">
+        <v>0.51844461758931415</v>
+      </c>
+      <c r="I108">
+        <v>0.44544347127278605</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576 C84:R84">
-    <cfRule type="top10" dxfId="14" priority="16" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="16" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="top10" dxfId="13" priority="15" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="15" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="top10" dxfId="12" priority="14" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="14" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="top10" dxfId="11" priority="13" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="13" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="top10" dxfId="10" priority="12" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="12" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="top10" dxfId="9" priority="11" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="11" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="top10" dxfId="8" priority="10" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="10" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="top10" dxfId="7" priority="9" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="9" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="top10" dxfId="6" priority="8" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="8" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:M1048576">
-    <cfRule type="top10" dxfId="5" priority="7" bottom="1" rank="10"/>
+  <conditionalFormatting sqref="L1:L1048576 M1:M86 M96:M1048576">
+    <cfRule type="top10" dxfId="21" priority="7" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="top10" dxfId="4" priority="6" bottom="1" rank="10"/>
+  <conditionalFormatting sqref="N1:N1048576 O87:R95 B87:M95">
+    <cfRule type="top10" dxfId="20" priority="6" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="top10" dxfId="3" priority="5" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="5" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="top10" dxfId="2" priority="4" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="4" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="top10" dxfId="1" priority="3" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="3" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="2" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1048576">
-    <cfRule type="top10" dxfId="30" priority="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10211,49 +10999,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B83 B86:B1048576">
-    <cfRule type="top10" dxfId="29" priority="15" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="14" priority="15" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C83 C86:C1048576">
-    <cfRule type="top10" dxfId="28" priority="14" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="13" priority="14" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D83 D86:D1048576">
-    <cfRule type="top10" dxfId="27" priority="13" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="12" priority="13" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E83 E86:E1048576">
-    <cfRule type="top10" dxfId="26" priority="12" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G83 F86:G1048576">
-    <cfRule type="top10" dxfId="25" priority="11" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H83 H86:H1048576">
-    <cfRule type="top10" dxfId="24" priority="10" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I83 I86:I1048576">
-    <cfRule type="top10" dxfId="23" priority="9" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J83 J86:J1048576">
-    <cfRule type="top10" dxfId="22" priority="8" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K83 K86:K1048576">
-    <cfRule type="top10" dxfId="21" priority="7" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:M83 L86:M1048576">
-    <cfRule type="top10" dxfId="20" priority="6" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N83 N86:N1048576">
-    <cfRule type="top10" dxfId="19" priority="5" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O83 O86:O1048576">
-    <cfRule type="top10" dxfId="18" priority="4" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P83 P86:P1048576">
-    <cfRule type="top10" dxfId="17" priority="3" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q83 Q86:Q1048576">
-    <cfRule type="top10" dxfId="16" priority="2" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R83 R86:R1048576">
-    <cfRule type="top10" dxfId="15" priority="1" bottom="1" rank="5"/>
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10263,7 +11051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B84" sqref="B84:R84"/>
     </sheetView>
   </sheetViews>
